--- a/data/Yungay.xlsx
+++ b/data/Yungay.xlsx
@@ -1508,7 +1508,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">

--- a/data/Yungay.xlsx
+++ b/data/Yungay.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Yungay.xlsx
+++ b/data/Yungay.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Yungay.xlsx
+++ b/data/Yungay.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Yungay.xlsx
+++ b/data/Yungay.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/Yungay.xlsx
+++ b/data/Yungay.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Campanario</t>
+          <t>Parque Eólico Dañicalqui</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MVC SOLAR 60 SpA</t>
+          <t>Eolica Dañicalqui SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>11000</v>
+        <v>120000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>15/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151731007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156638308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Solar Pequén</t>
+          <t>Parque Fotovoltaico Campanario</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,11 +487,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Parque Solar Pequén SpA</t>
+          <t>MVC SOLAR 60 SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10586</v>
+        <v>11000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151771799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151731007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Solar Lucero</t>
+          <t>Parque Solar Pequén</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,11 +535,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Parque Solar Lucero SpA</t>
+          <t>Parque Solar Pequén SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9027</v>
+        <v>10586</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151785178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151771799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,40 +568,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Eólico Peñasco Ventoso</t>
+          <t>Parque Solar Lucero</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Quilleco SpA</t>
+          <t>Parque Solar Lucero SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>325000</v>
+        <v>9027</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>27/04/2021</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151479402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151785178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,40 +616,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Agrovisión</t>
+          <t>Parque Eólico Peñasco Ventoso</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MVC SOLAR 11 SPA</t>
+          <t>Quilleco SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>11000</v>
+        <v>325000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>21/04/2021</t>
+          <t>27/04/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151527649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151479402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>21/04/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151080615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151527649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica La Palma</t>
+          <t>Planta Fotovoltaica Agrovisión</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MVC SOLAR 5 SPA</t>
+          <t>MVC SOLAR 11 SPA</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>19/02/2021</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150858671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151080615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Agrovisión</t>
+          <t>Planta Fotovoltaica La Palma</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MVC SOLAR 11 SPA</t>
+          <t>MVC SOLAR 5 SPA</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>25/01/2021</t>
+          <t>19/02/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149738826&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150858671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Pellín</t>
+          <t>Planta Fotovoltaica Agrovisión</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Solar TI Quince SpA.</t>
+          <t>MVC SOLAR 11 SPA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10350</v>
+        <v>11000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/09/2020</t>
+          <t>25/01/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148325955&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149738826&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Parque Solar Ciprés</t>
+          <t>Parque Fotovoltaico Pellín</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Ciprés SpA.</t>
+          <t>Solar TI Quince SpA.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>7381</v>
+        <v>10350</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>21/04/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146307190&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148325955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque Solar Raulí</t>
+          <t>Parque Solar Ciprés</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Raulí SpA.</t>
+          <t>Empresa Eléctrica Ciprés SpA.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5741</v>
+        <v>7381</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20/04/2020</t>
+          <t>21/04/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146181372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146307190&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Solar Esmeralda II</t>
+          <t>Parque Solar Raulí</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,11 +967,11 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Parque Solar Esmeralda SpA</t>
+          <t>Empresa Eléctrica Raulí SpA.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>16500</v>
+        <v>5741</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146169495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146181372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Solar Peumo</t>
+          <t>Parque Solar Esmeralda II</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Peumo SpA</t>
+          <t>Parque Solar Esmeralda SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>7380</v>
+        <v>16500</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>24/03/2020</t>
+          <t>20/04/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146004128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146169495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Solar Guindo Santo</t>
+          <t>Parque Solar Peumo</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Guindo Santo SpA</t>
+          <t>Empresa Eléctrica Peumo SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>23/03/2020</t>
+          <t>24/03/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146014369&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146004128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Ravenna Solar</t>
+          <t>Parque Solar Guindo Santo</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,11 +1111,11 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Ravenna Solar SpA</t>
+          <t>Empresa Eléctrica Guindo Santo SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>12000</v>
+        <v>7380</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146003159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146014369&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Imola Solar</t>
+          <t>Planta Fotovoltaica Ravenna Solar</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Imola Solar SpA</t>
+          <t>Ravenna Solar SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22/11/2019</t>
+          <t>23/03/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144998267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146003159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Trilaleo</t>
+          <t>Planta Fotovoltaica Imola Solar</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MVC Solar 17 SpA</t>
+          <t>Imola Solar SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>22/07/2019</t>
+          <t>22/11/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143740948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144998267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Villa Yungay</t>
+          <t>Parque Fotovoltaico Trilaleo</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Inmobiliaria IHV Limitada</t>
+          <t>MVC Solar 17 SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>24576</v>
+        <v>9000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>05/06/2019</t>
+          <t>22/07/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143361334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143740948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Yungay II</t>
+          <t>Conjunto Habitacional Villa Yungay</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sol del Sur 1 SpA</t>
+          <t>Inmobiliaria IHV Limitada</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>9000</v>
+        <v>24576</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>23/05/2019</t>
+          <t>05/06/2019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143247361&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143361334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Yungay</t>
+          <t>Parque Fotovoltaico Yungay II</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Sol del Sur 1 SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2457</v>
+        <v>9000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>21/01/2019</t>
+          <t>23/05/2019</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142205248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143247361&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Yungay</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>9903</v>
+        <v>2457</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>21/01/2019</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142205248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>10000</v>
+        <v>9903</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Central Térmica Biomasa Agrícola Newenkutral</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>AGRI ENERGIA S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128962712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Central Térmica Biomasa Agrícola Newenkutral</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>AGRI ENERGIA S.A</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>250</v>
+        <v>100000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128962712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Pequeña Central Hidroeléctrica de Pasada El Pinar</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica El Pinar SpA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>23400</v>
+        <v>250</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>17/10/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7430147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Aaktei Energía SpA</t>
+          <t>Empresa Eléctrica El Pinar SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>21/09/2012</t>
+          <t>17/10/2012</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7354919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7430147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,40 +1768,40 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN SISTEMA DE IMPREGNACIÓN PLANTA VIGAS LAMINADAS</t>
+          <t>Pequeña Central Hidroeléctrica de Pasada El Pinar</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Maderas Arauco S.A</t>
+          <t>Aaktei Energía SpA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>811</v>
+        <v>23400</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>05/09/2012</t>
+          <t>21/09/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7301451&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7354919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Centro Eco-Agroturístico Chaicán</t>
+          <t>AMPLIACIÓN SISTEMA DE IMPREGNACIÓN PLANTA VIGAS LAMINADAS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SERVICIOS DE TURISMO EL CHAICÁN LIMITADA</t>
+          <t>Maderas Arauco S.A</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5000</v>
+        <v>811</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>28/08/2012</t>
+          <t>05/09/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7275461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7301451&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Centro Eco-Agroturístico Chaicán</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>SERVICIOS DE TURISMO EL CHAICÁN LIMITADA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>28/08/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7275461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Proyecto MDL "Pequeña Central Hidroeléctrica de Pasada El Pinar"</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,20 +1922,20 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Aaktei Energía SpA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>195000</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>27/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6638463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Pequeña Central Hidroeléctrica de Pasada El Pinar</t>
+          <t>Proyecto MDL "Pequeña Central Hidroeléctrica de Pasada El Pinar"</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1979,11 +1979,11 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>19500</v>
+        <v>195000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>08/02/2012</t>
+          <t>27/02/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6583789&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6638463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Minicentral Hidroeléctrica Trilaleo 2</t>
+          <t>Pequeña Central Hidroeléctrica de Pasada El Pinar</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>HIDROTRILALEO II S.A.</t>
+          <t>Aaktei Energía SpA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>7000</v>
+        <v>19500</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>01/02/2012</t>
+          <t>08/02/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6562487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6583789&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Minicentral Hidroeléctrica Trilaleo 2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>HIDROTRILALEO II S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>01/02/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6562487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Áridos desde el río Laja - Áridos del Laja S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Áridos del Laja S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6296854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Extracción Mecanizada de Áridos desde el río Laja - Áridos del Laja S.A.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Áridos del Laja S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1650</v>
+        <v>1000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6296854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2267,21 +2267,21 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,40 +2296,40 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Minicentral de Pasada Itata</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ELECTRICA PUNTILLA S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>31000</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>24/06/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5744657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>08/06/2011</t>
+          <t>24/06/2011</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5699799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5744657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Minicentral Hidroeléctrica Trilaleo 3</t>
+          <t>Minicentral de Pasada Itata</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>HIDROTRILALEO III S.A.</t>
+          <t>ELECTRICA PUNTILLA S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>7000</v>
+        <v>31000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>16/05/2011</t>
+          <t>08/06/2011</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5610302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5699799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,12 +2440,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Pequeña Central Hidroeléctrica de Pasada Baquedano</t>
+          <t>Minicentral Hidroeléctrica Trilaleo 3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Energía Baquedano Spa</t>
+          <t>HIDROTRILALEO III S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>56300</v>
+        <v>7000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>09/05/2011</t>
+          <t>16/05/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5588117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5610302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,12 +2488,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mini-Central Hidroeléctrica de Pasada Itata</t>
+          <t>Pequeña Central Hidroeléctrica de Pasada Baquedano</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ELECTRICA PUNTILLA S.A.</t>
+          <t>Energía Baquedano Spa</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>31000</v>
+        <v>56300</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>03/05/2011</t>
+          <t>09/05/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5571443&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5588117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,12 +2536,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico Molinos de Agua Proyecto Hidroeléctrico Molinos de Agua</t>
+          <t>Mini-Central Hidroeléctrica de Pasada Itata</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Molinos de Agua S.A.</t>
+          <t>ELECTRICA PUNTILLA S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>50000</v>
+        <v>31000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>25/03/2011</t>
+          <t>03/05/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Renuncia RCA</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5469296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5571443&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,12 +2584,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Minicetral Hidroeléctrica Trileo 3</t>
+          <t>Proyecto Hidroeléctrico Molinos de Agua Proyecto Hidroeléctrico Molinos de Agua</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>HIDROTRILALEO III S.A.</t>
+          <t>Hidroeléctrica Molinos de Agua S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>7000</v>
+        <v>50000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>17/03/2011</t>
+          <t>25/03/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Renuncia RCA</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5456529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5469296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Minicetral Hidroeléctrica Trileo 3</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>HIDROTRILALEO III S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>300</v>
+        <v>7000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>17/03/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5456529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DESCORTEZADO Y ASTILLADO DE ROLLIZOS, TRUPÁN-CHOLGUÁN (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Maderas Arauco S.A</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4000</v>
+        <v>22</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>20/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3793352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>DESCORTEZADO Y ASTILLADO DE ROLLIZOS, TRUPÁN-CHOLGUÁN (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Maderas Arauco S.A</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>20/05/2009</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3793352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Planta Astillado Cholguán (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Forestal Arauco S.A..</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>695</v>
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>02/09/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3152992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PLAN DE CIERRE DE VERTEDERO COMUNA DE YUNGAY (e-seia)</t>
+          <t>Planta Astillado Cholguán (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Yungay</t>
+          <t>Forestal Arauco S.A..</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>626</v>
+        <v>695</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>08/08/2008</t>
+          <t>02/09/2008</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3152992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>PLAN DE CIERRE DE VERTEDERO COMUNA DE YUNGAY (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ilustre Municipalidad de Yungay</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1650</v>
+        <v>626</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>08/08/2008</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3183,17 +3183,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Tratamiento de Residuos Industriales Líquidos de Planta Cholguán (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,20 +3314,20 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Maderas Arauco S.A</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>24/10/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2453662&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Mejoramiento del Sistema de Tratamiento de Residuos Industriales Líquidos de Planta Cholguán (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Maderas Arauco S.A</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>234</v>
+        <v>4000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>24/10/2007</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2453662&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3615,17 +3615,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3759,17 +3759,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ACTUALIZACIÓN DEL SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LÍQUIDOS PLANTA TRUPÁN (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Maderas Arauco S.A</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1500</v>
+        <v>80</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1457013&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
+          <t>ACTUALIZACIÓN DEL SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LÍQUIDOS PLANTA TRUPÁN (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Maderas Arauco S.A</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>240</v>
+        <v>1500</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1457013&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Loteo Yungay (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,20 +3890,20 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>José Miguel García Echavarri</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3500</v>
+        <v>240</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>03/05/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Proyecto Inmobiliario Loteo Yungay (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>José Miguel García Echavarri</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>03/05/2006</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Loteo Yungay (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>José Miguel García Echavarri</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>07/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1310945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Proyecto Inmobiliario Loteo Yungay (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,20 +4034,20 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>José Miguel García Echavarri</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>07/03/2006</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1310945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Joel Salamanca Saldaña</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>16/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Joel Salamanca Saldaña</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>16/02/2006</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SISTEMA DE DISPOSICION EFLUENTE PTAS CAMPANARIO - YUNGAY (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,20 +4226,20 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Yungay</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1007</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>02/12/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>SISTEMA DE DISPOSICION EFLUENTE PTAS CAMPANARIO - YUNGAY (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,20 +4274,20 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Ilustre Municipalidad de Yungay</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>3517</v>
+        <v>1007</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>02/12/2005</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Modificacion Sistema de Disposicion efluente PTAS Campanario Yungay (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Yungay</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>965</v>
+        <v>3517</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>24/10/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1078193&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Aumento de Capacidad de Producción Planta de Molduras Trupan (e-seia)</t>
+          <t>Modificacion Sistema de Disposicion efluente PTAS Campanario Yungay (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Maderas Arauco S.A</t>
+          <t>Ilustre Municipalidad de Yungay</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>4100</v>
+        <v>965</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>01/08/2005</t>
+          <t>24/10/2005</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=957681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1078193&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Aumento de Capacidad de Producción Planta de Molduras Trupan (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,20 +4418,20 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Maderas Arauco S.A</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>200</v>
+        <v>4100</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>01/08/2005</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=957681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -4527,17 +4527,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DEPÓSITO DE RESIDUOS (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>TRANSPORTES CHOME LTDA</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>12/10/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>DEPÓSITO DE RESIDUOS (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,12 +4658,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>TRANSPORTES CHOME LTDA</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>12/10/2004</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Depósito de Residuos Forestales No Tóxicos (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,12 +4706,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>TRANSPORTES CHOME LTDA</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4719,17 +4719,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>28/04/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=333919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Vertedero de Residuos Sólidos El Coigue (e-seia)</t>
+          <t>Depósito de Residuos Forestales No Tóxicos (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4767,17 +4767,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>16/04/2004</t>
+          <t>28/04/2004</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=322458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=333919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Vertedero de Residuos Sólidos El Coigue (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,30 +4802,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>TRANSPORTES CHOME LTDA</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>16/04/2004</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=322458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Uso benéfico de lodos provenientes de Plantas de Tratamiento de Aguas Servidas de Essbío S.A.</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>05/04/2002</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Instalación del Sistema de Alcantarillado y Planta de Tratamiento de Aguas Servidas localidad de Campanario comuna de Yungay</t>
+          <t>Uso benéfico de lodos provenientes de Plantas de Tratamiento de Aguas Servidas de Essbío S.A.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,20 +4898,20 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Yungay</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1460</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>06/12/2001</t>
+          <t>05/04/2002</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Implementación Centro de Cultivo Trucha Arcoiris en el Sector Pangal del Laja Comuna de Yungay</t>
+          <t>Instalación del Sistema de Alcantarillado y Planta de Tratamiento de Aguas Servidas localidad de Campanario comuna de Yungay</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Mercedes Naomí Campos Chavarría</t>
+          <t>Ilustre Municipalidad de Yungay</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>80</v>
+        <v>1460</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>05/06/2001</t>
+          <t>06/12/2001</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,30 +4984,30 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica El Piulo S/E Charrúa</t>
+          <t>Implementación Centro de Cultivo Trucha Arcoiris en el Sector Pangal del Laja Comuna de Yungay</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Mercedes Naomí Campos Chavarría</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>26700</v>
+        <v>80</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>23/03/2001</t>
+          <t>05/06/2001</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3741&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,30 +5032,30 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Planta Trupan 2</t>
+          <t>Línea de Transmisión Eléctrica El Piulo S/E Charrúa</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Maderas Arauco S.A</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>75000</v>
+        <v>26700</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>03/10/2000</t>
+          <t>23/03/2001</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3741&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Ampliación Operación Extracción Mecanizada de Aridos</t>
+          <t>Planta Trupan 2</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Áridos del Laja S.A.</t>
+          <t>Maderas Arauco S.A</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>240</v>
+        <v>75000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>10/11/1999</t>
+          <t>03/10/2000</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Yungay</t>
+          <t>Ampliación Operación Extracción Mecanizada de Aridos</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Áridos del Laja S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1320</v>
+        <v>240</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>09/04/1999</t>
+          <t>10/11/1999</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Construcción de Sondajes con Caudal Garantizado Yungay</t>
+          <t>Planta de Tratamiento de Aguas Servidas de Yungay</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5195,11 +5195,11 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>50</v>
+        <v>1320</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>22/12/1998</t>
+          <t>09/04/1999</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,43 +5224,91 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
+          <t>Construcción de Sondajes con Caudal Garantizado Yungay</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Décimosexta</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>ESSBIO S.A.</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>50</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>22/12/1998</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886270&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Yungay</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
           <t>Consultorio General Rural Campanario</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>Décimosexta</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>Ilustre Municipalidad de Yungay</t>
         </is>
       </c>
-      <c r="F102" t="n">
+      <c r="F103" t="n">
         <v>180</v>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>07/10/1997</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=745&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr">
+      <c r="J103" t="inlineStr">
         <is>
           <t>Yungay</t>
         </is>

--- a/data/Yungay.xlsx
+++ b/data/Yungay.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/09/2022</t>
+          <t>23/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Yungay.xlsx
+++ b/data/Yungay.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Eólico Dañicalqui</t>
+          <t>Planta Fabricación de OSB Planta Trupán</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Eolica Dañicalqui SpA</t>
+          <t>Maderas Arauco S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>120000</v>
+        <v>280000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/09/2022</t>
+          <t>18/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156638308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157298712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Campanario</t>
+          <t>Parque Eólico Dañicalqui</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,30 +482,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MVC SOLAR 60 SpA</t>
+          <t>Eolica Dañicalqui SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>11000</v>
+        <v>120000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>23/09/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151731007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156638308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Solar Pequén</t>
+          <t>Parque Fotovoltaico Campanario</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,11 +535,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Parque Solar Pequén SpA</t>
+          <t>MVC SOLAR 60 SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10586</v>
+        <v>11000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151771799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151731007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Solar Lucero</t>
+          <t>Parque Solar Pequén</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,11 +583,11 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Parque Solar Lucero SpA</t>
+          <t>Parque Solar Pequén SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>9027</v>
+        <v>10586</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151785178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151771799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,40 +616,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Eólico Peñasco Ventoso</t>
+          <t>Parque Solar Lucero</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Quilleco SpA</t>
+          <t>Parque Solar Lucero SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>325000</v>
+        <v>9027</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>27/04/2021</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151479402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151785178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,40 +664,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Agrovisión</t>
+          <t>Parque Eólico Peñasco Ventoso</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MVC SOLAR 11 SPA</t>
+          <t>Quilleco SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>11000</v>
+        <v>325000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21/04/2021</t>
+          <t>27/04/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151527649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151479402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>21/04/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151080615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151527649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica La Palma</t>
+          <t>Planta Fotovoltaica Agrovisión</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MVC SOLAR 5 SPA</t>
+          <t>MVC SOLAR 11 SPA</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>19/02/2021</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150858671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151080615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Agrovisión</t>
+          <t>Planta Fotovoltaica La Palma</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MVC SOLAR 11 SPA</t>
+          <t>MVC SOLAR 5 SPA</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>25/01/2021</t>
+          <t>19/02/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149738826&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150858671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Pellín</t>
+          <t>Planta Fotovoltaica Agrovisión</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Solar TI Quince SpA.</t>
+          <t>MVC SOLAR 11 SPA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10350</v>
+        <v>11000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/09/2020</t>
+          <t>25/01/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148325955&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149738826&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque Solar Ciprés</t>
+          <t>Parque Fotovoltaico Pellín</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Ciprés SpA.</t>
+          <t>Solar TI Quince SpA.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>7381</v>
+        <v>10350</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>21/04/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146307190&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148325955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Solar Raulí</t>
+          <t>Parque Solar Ciprés</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Raulí SpA.</t>
+          <t>Empresa Eléctrica Ciprés SpA.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5741</v>
+        <v>7381</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20/04/2020</t>
+          <t>21/04/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146181372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146307190&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Solar Esmeralda II</t>
+          <t>Parque Solar Raulí</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,11 +1015,11 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Parque Solar Esmeralda SpA</t>
+          <t>Empresa Eléctrica Raulí SpA.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>16500</v>
+        <v>5741</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146169495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146181372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Solar Peumo</t>
+          <t>Parque Solar Esmeralda II</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Peumo SpA</t>
+          <t>Parque Solar Esmeralda SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>7380</v>
+        <v>16500</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>24/03/2020</t>
+          <t>20/04/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146004128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146169495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Solar Guindo Santo</t>
+          <t>Parque Solar Peumo</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Guindo Santo SpA</t>
+          <t>Empresa Eléctrica Peumo SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>23/03/2020</t>
+          <t>24/03/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146014369&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146004128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Ravenna Solar</t>
+          <t>Parque Solar Guindo Santo</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,11 +1159,11 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ravenna Solar SpA</t>
+          <t>Empresa Eléctrica Guindo Santo SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>12000</v>
+        <v>7380</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146003159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146014369&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Imola Solar</t>
+          <t>Planta Fotovoltaica Ravenna Solar</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Imola Solar SpA</t>
+          <t>Ravenna Solar SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>22/11/2019</t>
+          <t>23/03/2020</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144998267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146003159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Trilaleo</t>
+          <t>Planta Fotovoltaica Imola Solar</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MVC Solar 17 SpA</t>
+          <t>Imola Solar SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>22/07/2019</t>
+          <t>22/11/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143740948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144998267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Villa Yungay</t>
+          <t>Parque Fotovoltaico Trilaleo</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inmobiliaria IHV Limitada</t>
+          <t>MVC Solar 17 SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>24576</v>
+        <v>9000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>05/06/2019</t>
+          <t>22/07/2019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143361334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143740948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Yungay II</t>
+          <t>Conjunto Habitacional Villa Yungay</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sol del Sur 1 SpA</t>
+          <t>Inmobiliaria IHV Limitada</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>9000</v>
+        <v>24576</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>23/05/2019</t>
+          <t>05/06/2019</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143247361&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143361334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Yungay</t>
+          <t>Parque Fotovoltaico Yungay II</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Sol del Sur 1 SpA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2457</v>
+        <v>9000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>21/01/2019</t>
+          <t>23/05/2019</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142205248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143247361&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Yungay</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>9903</v>
+        <v>2457</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>21/01/2019</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142205248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>10000</v>
+        <v>9903</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Central Térmica Biomasa Agrícola Newenkutral</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>AGRI ENERGIA S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128962712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Central Térmica Biomasa Agrícola Newenkutral</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>AGRI ENERGIA S.A</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>250</v>
+        <v>100000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128962712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,12 +1720,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Pequeña Central Hidroeléctrica de Pasada El Pinar</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica El Pinar SpA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>23400</v>
+        <v>250</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>17/10/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7430147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Aaktei Energía SpA</t>
+          <t>Empresa Eléctrica El Pinar SpA</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>21/09/2012</t>
+          <t>17/10/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7354919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7430147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,40 +1816,40 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN SISTEMA DE IMPREGNACIÓN PLANTA VIGAS LAMINADAS</t>
+          <t>Pequeña Central Hidroeléctrica de Pasada El Pinar</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Maderas Arauco S.A</t>
+          <t>Aaktei Energía SpA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>811</v>
+        <v>23400</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>05/09/2012</t>
+          <t>21/09/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7301451&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7354919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Centro Eco-Agroturístico Chaicán</t>
+          <t>AMPLIACIÓN SISTEMA DE IMPREGNACIÓN PLANTA VIGAS LAMINADAS</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SERVICIOS DE TURISMO EL CHAICÁN LIMITADA</t>
+          <t>Maderas Arauco S.A</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5000</v>
+        <v>811</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>28/08/2012</t>
+          <t>05/09/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7275461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7301451&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Centro Eco-Agroturístico Chaicán</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>SERVICIOS DE TURISMO EL CHAICÁN LIMITADA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>28/08/2012</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7275461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Proyecto MDL "Pequeña Central Hidroeléctrica de Pasada El Pinar"</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,20 +1970,20 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Aaktei Energía SpA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>195000</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>27/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6638463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pequeña Central Hidroeléctrica de Pasada El Pinar</t>
+          <t>Proyecto MDL "Pequeña Central Hidroeléctrica de Pasada El Pinar"</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2027,11 +2027,11 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>19500</v>
+        <v>195000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>08/02/2012</t>
+          <t>27/02/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6583789&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6638463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Minicentral Hidroeléctrica Trilaleo 2</t>
+          <t>Pequeña Central Hidroeléctrica de Pasada El Pinar</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>HIDROTRILALEO II S.A.</t>
+          <t>Aaktei Energía SpA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>7000</v>
+        <v>19500</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>01/02/2012</t>
+          <t>08/02/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6562487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6583789&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Minicentral Hidroeléctrica Trilaleo 2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>HIDROTRILALEO II S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>01/02/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6562487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Áridos desde el río Laja - Áridos del Laja S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Áridos del Laja S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6296854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Extracción Mecanizada de Áridos desde el río Laja - Áridos del Laja S.A.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Áridos del Laja S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1650</v>
+        <v>1000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6296854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2315,21 +2315,21 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,40 +2344,40 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Minicentral de Pasada Itata</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ELECTRICA PUNTILLA S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>31000</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>24/06/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5744657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2415,17 +2415,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>08/06/2011</t>
+          <t>24/06/2011</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5699799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5744657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,12 +2440,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Minicentral Hidroeléctrica Trilaleo 3</t>
+          <t>Minicentral de Pasada Itata</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>HIDROTRILALEO III S.A.</t>
+          <t>ELECTRICA PUNTILLA S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>7000</v>
+        <v>31000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>16/05/2011</t>
+          <t>08/06/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5610302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5699799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,12 +2488,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Pequeña Central Hidroeléctrica de Pasada Baquedano</t>
+          <t>Minicentral Hidroeléctrica Trilaleo 3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Energía Baquedano Spa</t>
+          <t>HIDROTRILALEO III S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>56300</v>
+        <v>7000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>09/05/2011</t>
+          <t>16/05/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5588117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5610302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,12 +2536,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mini-Central Hidroeléctrica de Pasada Itata</t>
+          <t>Pequeña Central Hidroeléctrica de Pasada Baquedano</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ELECTRICA PUNTILLA S.A.</t>
+          <t>Energía Baquedano Spa</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>31000</v>
+        <v>56300</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>03/05/2011</t>
+          <t>09/05/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5571443&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5588117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,12 +2584,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico Molinos de Agua Proyecto Hidroeléctrico Molinos de Agua</t>
+          <t>Mini-Central Hidroeléctrica de Pasada Itata</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Molinos de Agua S.A.</t>
+          <t>ELECTRICA PUNTILLA S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>50000</v>
+        <v>31000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>25/03/2011</t>
+          <t>03/05/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Renuncia RCA</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5469296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5571443&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,12 +2632,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Minicetral Hidroeléctrica Trileo 3</t>
+          <t>Proyecto Hidroeléctrico Molinos de Agua Proyecto Hidroeléctrico Molinos de Agua</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>HIDROTRILALEO III S.A.</t>
+          <t>Hidroeléctrica Molinos de Agua S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>7000</v>
+        <v>50000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>17/03/2011</t>
+          <t>25/03/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Renuncia RCA</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5456529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5469296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Minicetral Hidroeléctrica Trileo 3</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>HIDROTRILALEO III S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>300</v>
+        <v>7000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>17/03/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5456529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -2847,17 +2847,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DESCORTEZADO Y ASTILLADO DE ROLLIZOS, TRUPÁN-CHOLGUÁN (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Maderas Arauco S.A</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>4000</v>
+        <v>22</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>20/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3793352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>DESCORTEZADO Y ASTILLADO DE ROLLIZOS, TRUPÁN-CHOLGUÁN (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Maderas Arauco S.A</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>20/05/2009</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3793352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3039,17 +3039,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Planta Astillado Cholguán (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Forestal Arauco S.A..</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>695</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>02/09/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3152992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PLAN DE CIERRE DE VERTEDERO COMUNA DE YUNGAY (e-seia)</t>
+          <t>Planta Astillado Cholguán (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Yungay</t>
+          <t>Forestal Arauco S.A..</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>626</v>
+        <v>695</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>08/08/2008</t>
+          <t>02/09/2008</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3152992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>PLAN DE CIERRE DE VERTEDERO COMUNA DE YUNGAY (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ilustre Municipalidad de Yungay</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1650</v>
+        <v>626</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>08/08/2008</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3231,17 +3231,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Tratamiento de Residuos Industriales Líquidos de Planta Cholguán (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,20 +3362,20 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Maderas Arauco S.A</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>24/10/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2453662&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Mejoramiento del Sistema de Tratamiento de Residuos Industriales Líquidos de Planta Cholguán (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Maderas Arauco S.A</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>234</v>
+        <v>4000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>24/10/2007</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2453662&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3663,17 +3663,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3807,17 +3807,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ACTUALIZACIÓN DEL SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LÍQUIDOS PLANTA TRUPÁN (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Maderas Arauco S.A</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1500</v>
+        <v>80</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1457013&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
+          <t>ACTUALIZACIÓN DEL SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LÍQUIDOS PLANTA TRUPÁN (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,16 +3890,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Maderas Arauco S.A</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>240</v>
+        <v>1500</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1457013&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Loteo Yungay (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,20 +3938,20 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>José Miguel García Echavarri</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3500</v>
+        <v>240</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>03/05/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Proyecto Inmobiliario Loteo Yungay (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>José Miguel García Echavarri</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>03/05/2006</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Loteo Yungay (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>José Miguel García Echavarri</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>07/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1310945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Proyecto Inmobiliario Loteo Yungay (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,20 +4082,20 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>José Miguel García Echavarri</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>07/03/2006</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1310945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Joel Salamanca Saldaña</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>16/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Joel Salamanca Saldaña</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>16/02/2006</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>SISTEMA DE DISPOSICION EFLUENTE PTAS CAMPANARIO - YUNGAY (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,20 +4274,20 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Yungay</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1007</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>02/12/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>SISTEMA DE DISPOSICION EFLUENTE PTAS CAMPANARIO - YUNGAY (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,20 +4322,20 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Ilustre Municipalidad de Yungay</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>3517</v>
+        <v>1007</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>02/12/2005</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Modificacion Sistema de Disposicion efluente PTAS Campanario Yungay (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Yungay</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>965</v>
+        <v>3517</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>24/10/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1078193&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Aumento de Capacidad de Producción Planta de Molduras Trupan (e-seia)</t>
+          <t>Modificacion Sistema de Disposicion efluente PTAS Campanario Yungay (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Maderas Arauco S.A</t>
+          <t>Ilustre Municipalidad de Yungay</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>4100</v>
+        <v>965</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>01/08/2005</t>
+          <t>24/10/2005</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=957681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1078193&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Aumento de Capacidad de Producción Planta de Molduras Trupan (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,20 +4466,20 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Maderas Arauco S.A</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>200</v>
+        <v>4100</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>01/08/2005</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=957681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -4575,17 +4575,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DEPÓSITO DE RESIDUOS (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,30 +4658,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>TRANSPORTES CHOME LTDA</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>12/10/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>DEPÓSITO DE RESIDUOS (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,12 +4706,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>TRANSPORTES CHOME LTDA</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>12/10/2004</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Depósito de Residuos Forestales No Tóxicos (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,12 +4754,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>TRANSPORTES CHOME LTDA</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4767,17 +4767,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>28/04/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=333919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Vertedero de Residuos Sólidos El Coigue (e-seia)</t>
+          <t>Depósito de Residuos Forestales No Tóxicos (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4815,17 +4815,17 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>16/04/2004</t>
+          <t>28/04/2004</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=322458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=333919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Vertedero de Residuos Sólidos El Coigue (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,30 +4850,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>TRANSPORTES CHOME LTDA</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>16/04/2004</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=322458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Uso benéfico de lodos provenientes de Plantas de Tratamiento de Aguas Servidas de Essbío S.A.</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>05/04/2002</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Instalación del Sistema de Alcantarillado y Planta de Tratamiento de Aguas Servidas localidad de Campanario comuna de Yungay</t>
+          <t>Uso benéfico de lodos provenientes de Plantas de Tratamiento de Aguas Servidas de Essbío S.A.</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,20 +4946,20 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Yungay</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1460</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>06/12/2001</t>
+          <t>05/04/2002</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Implementación Centro de Cultivo Trucha Arcoiris en el Sector Pangal del Laja Comuna de Yungay</t>
+          <t>Instalación del Sistema de Alcantarillado y Planta de Tratamiento de Aguas Servidas localidad de Campanario comuna de Yungay</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Mercedes Naomí Campos Chavarría</t>
+          <t>Ilustre Municipalidad de Yungay</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>80</v>
+        <v>1460</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>05/06/2001</t>
+          <t>06/12/2001</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,30 +5032,30 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica El Piulo S/E Charrúa</t>
+          <t>Implementación Centro de Cultivo Trucha Arcoiris en el Sector Pangal del Laja Comuna de Yungay</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Mercedes Naomí Campos Chavarría</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>26700</v>
+        <v>80</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>23/03/2001</t>
+          <t>05/06/2001</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3741&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,30 +5080,30 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Planta Trupan 2</t>
+          <t>Línea de Transmisión Eléctrica El Piulo S/E Charrúa</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Maderas Arauco S.A</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>75000</v>
+        <v>26700</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>03/10/2000</t>
+          <t>23/03/2001</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3741&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ampliación Operación Extracción Mecanizada de Aridos</t>
+          <t>Planta Trupan 2</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Áridos del Laja S.A.</t>
+          <t>Maderas Arauco S.A</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>240</v>
+        <v>75000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>10/11/1999</t>
+          <t>03/10/2000</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Yungay</t>
+          <t>Ampliación Operación Extracción Mecanizada de Aridos</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Áridos del Laja S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1320</v>
+        <v>240</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>09/04/1999</t>
+          <t>10/11/1999</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Construcción de Sondajes con Caudal Garantizado Yungay</t>
+          <t>Planta de Tratamiento de Aguas Servidas de Yungay</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5243,11 +5243,11 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>50</v>
+        <v>1320</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>22/12/1998</t>
+          <t>09/04/1999</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,43 +5272,91 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
+          <t>Construcción de Sondajes con Caudal Garantizado Yungay</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Décimosexta</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>ESSBIO S.A.</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>50</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>22/12/1998</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886270&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Yungay</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
           <t>Consultorio General Rural Campanario</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>Décimosexta</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>Ilustre Municipalidad de Yungay</t>
         </is>
       </c>
-      <c r="F103" t="n">
+      <c r="F104" t="n">
         <v>180</v>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>07/10/1997</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=745&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J103" t="inlineStr">
+      <c r="J104" t="inlineStr">
         <is>
           <t>Yungay</t>
         </is>

--- a/data/Yungay.xlsx
+++ b/data/Yungay.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2022</t>
+          <t>21/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Yungay.xlsx
+++ b/data/Yungay.xlsx
@@ -5095,7 +5095,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F99" t="n">

--- a/data/Yungay.xlsx
+++ b/data/Yungay.xlsx
@@ -5095,7 +5095,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F99" t="n">

--- a/data/Yungay.xlsx
+++ b/data/Yungay.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Yungay.xlsx
+++ b/data/Yungay.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
